--- a/seeddata-bsdf/99-exceldmd/Workflow App Model.xlsx
+++ b/seeddata-bsdf/99-exceldmd/Workflow App Model.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikhilbhatia/github/customer-seed-bsdf/99-exceldmd/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikhilbhatia/github/Beiersdorf/seeddata-bsdf/99-exceldmd/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="460" windowWidth="27320" windowHeight="14900" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="7520" yWindow="4340" windowWidth="27320" windowHeight="14900" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="REF DATA" sheetId="10" r:id="rId1"/>
@@ -33,8 +33,8 @@
   </definedNames>
   <calcPr calcId="145621" iterateDelta="1E-4" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" mergeInterval="0" personalView="1" windowWidth="1472" windowHeight="548" tabRatio="500" activeSheetId="4"/>
     <customWorkbookView name="Gupta, Kunal - Personal View" guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" tabRatio="500" activeSheetId="4"/>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" mergeInterval="0" personalView="1" windowWidth="1472" windowHeight="548" tabRatio="500" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="87">
   <si>
     <t>ACTION</t>
   </si>
@@ -294,6 +294,21 @@
   </si>
   <si>
     <t>enart</t>
+  </si>
+  <si>
+    <t>admin||gbumanager</t>
+  </si>
+  <si>
+    <t>admin||lbumanager</t>
+  </si>
+  <si>
+    <t>Reject</t>
+  </si>
+  <si>
+    <t>Reject.png</t>
+  </si>
+  <si>
+    <t>Done||Reject</t>
   </si>
 </sst>
 </file>
@@ -665,37 +680,7 @@
     <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1219,12 +1204,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}">
+      <selection activeCell="A5" sqref="A5"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}">
       <selection activeCell="B34" sqref="B34"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}">
-      <selection activeCell="A5" sqref="A5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -1353,11 +1338,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="138">
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="138">
       <selection activeCell="B11" sqref="B11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="138">
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="138">
       <selection activeCell="B11" sqref="B11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -1426,14 +1411,14 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="150">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="150">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="150">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -1454,7 +1439,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1532,10 +1517,10 @@
         <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="J2" t="s">
         <v>68</v>
@@ -1559,7 +1544,7 @@
         <v>59</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="I3" s="24" t="s">
         <v>67</v>
@@ -1586,10 +1571,10 @@
         <v>59</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="J4" t="s">
         <v>72</v>
@@ -1613,7 +1598,7 @@
         <v>59</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="I5" s="24" t="s">
         <v>67</v>
@@ -2504,9 +2489,9 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="80" showAutoFilter="1" topLeftCell="E1">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G109" sqref="G109"/>
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A318" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B322" sqref="B322"/>
       <colBreaks count="1" manualBreakCount="1">
         <brk id="2" max="1048575" man="1"/>
       </colBreaks>
@@ -2514,9 +2499,9 @@
       <pageSetup orientation="portrait" r:id="rId1"/>
       <autoFilter ref="A1:AE347"/>
     </customSheetView>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" showAutoFilter="1">
-      <pane ySplit="1" topLeftCell="A318" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B322" sqref="B322"/>
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="80" showAutoFilter="1" topLeftCell="E1">
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="G109" sqref="G109"/>
       <colBreaks count="1" manualBreakCount="1">
         <brk id="2" max="1048575" man="1"/>
       </colBreaks>
@@ -2527,19 +2512,19 @@
   </customSheetViews>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B233">
-    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B234 B1 B252:B1048576 B3:B232">
-    <cfRule type="duplicateValues" dxfId="9" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B235:B250">
-    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B251">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:I1">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2551,7 +2536,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="235" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2595,7 +2580,18 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E3" s="24"/>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C4" s="24"/>
@@ -2603,10 +2599,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:D1">
-    <cfRule type="duplicateValues" dxfId="4" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="18"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2620,7 +2616,7 @@
   <sheetViews>
     <sheetView zoomScale="185" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2652,22 +2648,22 @@
     <row r="3" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="107">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="107">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="107">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/seeddata-bsdf/99-exceldmd/Workflow App Model.xlsx
+++ b/seeddata-bsdf/99-exceldmd/Workflow App Model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7520" yWindow="4340" windowWidth="27320" windowHeight="14900" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="38320" windowHeight="23540" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="REF DATA" sheetId="10" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="Z_F59B42B5_12A6_408C_8984_297F5E3274B0_.wvu.FilterData" localSheetId="4" hidden="1">'WORKFLOW ACTIVITY DEFINITION'!$A$1:$U$234</definedName>
     <definedName name="Z_F59B42B5_12A6_408C_8984_297F5E3274B0_.wvu.FilterData" localSheetId="3" hidden="1">WORKFLOWS!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="145621" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <customWorkbookViews>
     <customWorkbookView name="Microsoft Office User - Personal View" guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" mergeInterval="0" personalView="1" windowWidth="1472" windowHeight="548" tabRatio="500" activeSheetId="4"/>
     <customWorkbookView name="Gupta, Kunal - Personal View" guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" tabRatio="500" activeSheetId="4"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="106">
   <si>
     <t>ACTION</t>
   </si>
@@ -290,9 +290,6 @@
     <t>3e7aeb01-7b87-4eae-a5df-c730c4c2348e</t>
   </si>
   <si>
-    <t>newNartWorkflow</t>
-  </si>
-  <si>
     <t>enart</t>
   </si>
   <si>
@@ -309,6 +306,66 @@
   </si>
   <si>
     <t>Done||Reject</t>
+  </si>
+  <si>
+    <t>newPVSetup</t>
+  </si>
+  <si>
+    <t>2d005f6f-911d-4131-8b3e-c85da12313b3</t>
+  </si>
+  <si>
+    <t>Approve</t>
+  </si>
+  <si>
+    <t>Approve.png</t>
+  </si>
+  <si>
+    <t>Mandatory</t>
+  </si>
+  <si>
+    <t>gbuMediaEnrichment</t>
+  </si>
+  <si>
+    <t>a27de43e-520b-4bcf-9a7a-0966e5544ab6</t>
+  </si>
+  <si>
+    <t>Approve||Reject</t>
+  </si>
+  <si>
+    <t>Approve new Product Version</t>
+  </si>
+  <si>
+    <t>newLBUNartSetup</t>
+  </si>
+  <si>
+    <t>eproductversion</t>
+  </si>
+  <si>
+    <t>fb8d0f2c-6976-4960-bfc3-06e61effa95f</t>
+  </si>
+  <si>
+    <t>lbuMediaEnrichment</t>
+  </si>
+  <si>
+    <t>90322bd8-2f2f-4171-b533-e1f6778a950f</t>
+  </si>
+  <si>
+    <t>initiateExport</t>
+  </si>
+  <si>
+    <t>163a5dde-2f8b-4839-9b01-3ffd26b587dc</t>
+  </si>
+  <si>
+    <t>Publish Nart</t>
+  </si>
+  <si>
+    <t>Approve new Nart</t>
+  </si>
+  <si>
+    <t>GBU Workflow</t>
+  </si>
+  <si>
+    <t>LBU Workflow</t>
   </si>
 </sst>
 </file>
@@ -680,7 +737,27 @@
     <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1355,11 +1432,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScale="220" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="220" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1407,7 +1484,32 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E3" s="24"/>
+      <c r="B3" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>105</v>
+      </c>
     </row>
   </sheetData>
   <customSheetViews>
@@ -1422,7 +1524,10 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
-  <dataValidations count="1">
+  <conditionalFormatting sqref="B3:B4">
+    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
+  </conditionalFormatting>
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>_STATUS</formula1>
     </dataValidation>
@@ -1437,9 +1542,9 @@
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:U253"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView zoomScale="156" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1453,7 +1558,8 @@
     <col min="7" max="7" width="29.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="37.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
@@ -1517,10 +1623,10 @@
         <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J2" t="s">
         <v>68</v>
@@ -1544,7 +1650,7 @@
         <v>59</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I3" s="24" t="s">
         <v>67</v>
@@ -1571,10 +1677,10 @@
         <v>59</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J4" t="s">
         <v>72</v>
@@ -1598,7 +1704,7 @@
         <v>59</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I5" s="24" t="s">
         <v>67</v>
@@ -1636,23 +1742,138 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="24"/>
-      <c r="B7" s="20"/>
+      <c r="B7" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="24"/>
-      <c r="B8" s="19"/>
+      <c r="B8" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="24"/>
-      <c r="B9" s="20"/>
+      <c r="B9" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="24"/>
-      <c r="B10" s="20"/>
+      <c r="B10" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
-      <c r="B11" s="20"/>
+      <c r="B11" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="24"/>
@@ -2512,19 +2733,19 @@
   </customSheetViews>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B233">
-    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B234 B1 B252:B1048576 B3:B232">
-    <cfRule type="duplicateValues" dxfId="7" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B235:B250">
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B251">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:I1">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2536,7 +2757,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="235" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2581,28 +2802,38 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
         <v>84</v>
       </c>
-      <c r="C3" t="s">
-        <v>85</v>
-      </c>
       <c r="D3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="E4" s="24" t="s">
+        <v>88</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:D1">
-    <cfRule type="duplicateValues" dxfId="2" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="18"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2622,7 +2853,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2637,15 +2868,22 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="2" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="C3" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="107">
@@ -2660,9 +2898,12 @@
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2671,65 +2912,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_dlc_DocId xmlns="0fff5a07-2326-481b-a4e9-87ff7a79f8dd">Z7QZ4QWJDNQ7-73874190-24</_dlc_DocId>
@@ -2741,7 +2923,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003CF273DB610BE64D8338C714685CCF46" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2352d1590348b4df6d1de565ccbd102a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0fff5a07-2326-481b-a4e9-87ff7a79f8dd" xmlns:ns3="2e2046eb-f52d-433a-aad8-97c651e3992c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5c0a0cba47b5c64de8255dd546e4ec9" ns2:_="" ns3:_="">
     <xsd:import namespace="0fff5a07-2326-481b-a4e9-87ff7a79f8dd"/>
@@ -2919,23 +3101,66 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A58437D0-211E-4689-9BB7-1D7150BF8997}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{544FA98A-5D89-41A3-B3E3-9D6D7A4BCA0D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E9ADEF4-6C25-4BA4-9EDB-E28F722B8411}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2945,7 +3170,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CAC4C16-FDF5-437E-A8C4-D650CA39502E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2962,4 +3187,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A58437D0-211E-4689-9BB7-1D7150BF8997}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{544FA98A-5D89-41A3-B3E3-9D6D7A4BCA0D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>